--- a/StructureDefinition-profile-StructureDefinition.xlsx
+++ b/StructureDefinition-profile-StructureDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7952119-06:00</t>
+    <t>2026-02-09T22:05:43.3360249-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,38 +426,87 @@
     <t>StructureDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>StructureDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.versionAlgorithm[x]` is will have a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>StructureDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.copyrightLabel` is will have a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+  </si>
+  <si>
+    <t>StructureDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>StructureDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -866,20 +915,13 @@
     <t>StructureDefinition.fhirVersion.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>StructureDefinition.fhirVersion.extension:fhirVersion</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.fhirVersion|0.0.1-snapshot-3}
@@ -892,8 +934,7 @@
     <t>The version of the FHIR specification on which this StructureDefinition is based - this is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `StructureDefinition.fhirVersion` is mapped to FHIR R4 element `StructureDefinition.fhirVersion`.</t>
   </si>
   <si>
     <t>StructureDefinition.fhirVersion.value</t>
@@ -932,6 +973,9 @@
   </si>
   <si>
     <t>StructureDefinition.mapping.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1529,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1538,9 +1582,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.87109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.87109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1548,7 +1592,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2529,7 +2573,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2548,17 +2592,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2595,16 +2637,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2622,7 +2662,7 @@
         <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>81</v>
@@ -2642,43 +2682,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2726,7 +2766,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2735,13 +2775,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>81</v>
@@ -2758,18 +2798,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2781,23 +2823,21 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -2845,28 +2885,28 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -2884,7 +2924,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2897,13 +2937,13 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>155</v>
@@ -2964,7 +3004,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2976,38 +3016,38 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3022,18 +3062,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3081,10 +3123,10 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>88</v>
@@ -3099,13 +3141,13 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3113,10 +3155,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3124,10 +3166,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3139,7 +3181,7 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>170</v>
@@ -3200,16 +3242,16 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
@@ -3218,24 +3260,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3258,16 +3300,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3317,7 +3359,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3335,13 +3377,13 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3349,10 +3391,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3369,24 +3411,26 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3410,32 +3454,32 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
       </c>
@@ -3443,7 +3487,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3452,13 +3496,13 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3492,20 +3536,18 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3571,13 +3613,13 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3585,18 +3627,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3605,22 +3647,22 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3646,13 +3688,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -3670,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3688,13 +3730,13 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3728,16 +3770,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>209</v>
@@ -3813,7 +3855,7 @@
         <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3821,21 +3863,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3906,13 +3948,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -3927,7 +3969,7 @@
         <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -3938,10 +3980,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3961,10 +4003,10 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>221</v>
@@ -3975,7 +4017,9 @@
       <c r="N21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4023,7 +4067,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4041,13 +4085,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4055,10 +4099,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4081,20 +4125,18 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4142,7 +4184,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4160,7 +4202,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4174,10 +4216,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4188,7 +4230,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4197,19 +4239,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4235,13 +4277,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4259,13 +4301,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4277,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4291,10 +4333,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4305,7 +4347,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4314,10 +4356,10 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>242</v>
@@ -4328,7 +4370,9 @@
       <c r="N24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4376,13 +4420,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4394,16 +4438,16 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -4415,14 +4459,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4431,10 +4475,10 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>249</v>
@@ -4442,10 +4486,10 @@
       <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>251</v>
       </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4469,13 +4513,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4499,7 +4543,7 @@
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4511,7 +4555,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4520,15 +4564,15 @@
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4539,7 +4583,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4548,21 +4592,21 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4586,13 +4630,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4610,13 +4654,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4628,28 +4672,28 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4665,21 +4709,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4703,13 +4747,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4727,7 +4771,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4745,7 +4789,7 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -4754,15 +4798,15 @@
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4773,7 +4817,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4782,19 +4826,21 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4818,13 +4864,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4842,19 +4888,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -4866,7 +4912,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4874,10 +4920,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4885,10 +4931,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -4897,18 +4943,20 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4933,26 +4981,28 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>276</v>
@@ -4961,13 +5011,13 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -4987,10 +5037,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5013,17 +5063,15 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5072,19 +5120,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5104,10 +5152,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5118,7 +5166,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5130,13 +5178,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5175,31 +5223,29 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5219,12 +5265,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5233,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5245,15 +5293,17 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5302,7 +5352,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5311,10 +5361,10 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5334,10 +5384,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5360,13 +5410,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5417,7 +5467,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5432,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5449,14 +5499,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5475,17 +5525,15 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5534,7 +5582,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5546,10 +5594,10 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5566,46 +5614,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5653,22 +5697,22 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -5685,21 +5729,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5711,16 +5755,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5770,22 +5814,22 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5802,44 +5846,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5887,22 +5933,22 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -5919,10 +5965,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5930,7 +5976,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5945,15 +5991,17 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6002,16 +6050,16 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
@@ -6034,10 +6082,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6060,15 +6108,17 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6117,7 +6167,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6126,7 +6176,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6149,10 +6199,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6160,7 +6210,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6172,16 +6222,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6208,13 +6258,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6232,16 +6282,16 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6264,10 +6314,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6275,7 +6325,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6287,20 +6337,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6349,10 +6397,10 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
@@ -6381,10 +6429,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6392,10 +6440,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6407,13 +6455,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6440,13 +6488,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6464,16 +6512,16 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
@@ -6496,10 +6544,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6507,7 +6555,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6519,18 +6567,20 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6579,10 +6629,10 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6591,10 +6641,10 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -6611,14 +6661,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6634,20 +6684,18 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6696,7 +6744,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6705,13 +6753,13 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6728,46 +6776,42 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6815,22 +6859,22 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -6847,21 +6891,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6870,18 +6914,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6906,13 +6952,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -6930,22 +6976,22 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -6962,42 +7008,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7045,22 +7095,22 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7077,10 +7127,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7088,10 +7138,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7103,17 +7153,15 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7138,13 +7186,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7162,16 +7210,16 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7194,10 +7242,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7220,17 +7268,15 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7255,13 +7301,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7279,7 +7325,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7288,7 +7334,7 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7311,10 +7357,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7325,7 +7371,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7337,16 +7383,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7396,16 +7442,16 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7428,10 +7474,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7439,7 +7485,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7454,16 +7500,16 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7489,13 +7535,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7513,16 +7559,16 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7545,10 +7591,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7568,18 +7614,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7628,7 +7676,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7637,10 +7685,10 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>366</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -7660,10 +7708,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7683,18 +7731,20 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7719,13 +7769,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -7743,7 +7793,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7755,10 +7805,10 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -7775,21 +7825,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -7801,17 +7851,15 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>135</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -7860,22 +7908,22 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -7892,46 +7940,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -7979,22 +8023,22 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -8011,18 +8055,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8037,15 +8081,17 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8094,22 +8140,22 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>81</v>
@@ -8118,7 +8164,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8126,42 +8172,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8209,22 +8259,22 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
@@ -8241,10 +8291,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8252,10 +8302,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8267,13 +8317,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>163</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8324,22 +8374,22 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>270</v>
+        <v>384</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
@@ -8348,7 +8398,7 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8356,21 +8406,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8382,17 +8432,15 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>135</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8441,22 +8489,22 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -8473,46 +8521,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8560,22 +8604,22 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8592,18 +8636,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -8618,15 +8662,17 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8675,10 +8721,10 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
@@ -8687,21 +8733,255 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AO61" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-StructureDefinition.xlsx
+++ b/StructureDefinition-profile-StructureDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3360249-06:00</t>
+    <t>2026-02-17T14:42:26.917957-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `StructureDefinition.versionAlgorithm[x]` is will have a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+    <t>Element `StructureDefinition.versionAlgorithm[x]` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -489,7 +489,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `StructureDefinition.copyrightLabel` is will have a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+    <t>Element `StructureDefinition.copyrightLabel` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
   </si>
   <si>
     <t>StructureDefinition.modifierExtension</t>
@@ -934,7 +934,7 @@
     <t>The version of the FHIR specification on which this StructureDefinition is based - this is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t>Element `StructureDefinition.fhirVersion` is mapped to FHIR R4 element `StructureDefinition.fhirVersion`.</t>
+    <t>Element `StructureDefinition.fhirVersion` has is mapped to FHIR R4 element `StructureDefinition.fhirVersion`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureDefinition.fhirVersion.value</t>
@@ -975,10 +975,20 @@
     <t>StructureDefinition.mapping.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>StructureDefinition.mapping.extension:mapping</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.mapping|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.mapping from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.mapping` has is mapped to FHIR R4 element `StructureDefinition.mapping`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureDefinition.mapping.modifierExtension</t>
@@ -1090,6 +1100,25 @@
     <t>StructureDefinition.context.extension</t>
   </si>
   <si>
+    <t>StructureDefinition.context.extension:context</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.context|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.context from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Identifies the types of resource or data type elements to which the extension can be applied. For more guidance on using the 'context' element, see the [defining extensions page](https://hl7.org/fhir/defining.html#context).</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.context` has is mapped to FHIR R4 element `StructureDefinition.context`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>StructureDefinition.context.modifierExtension</t>
   </si>
   <si>
@@ -1217,6 +1246,22 @@
     <t>StructureDefinition.snapshot.extension</t>
   </si>
   <si>
+    <t>StructureDefinition.snapshot.extension:snapshot</t>
+  </si>
+  <si>
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.snapshot|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.snapshot from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.snapshot` has is mapped to FHIR R4 element `StructureDefinition.snapshot`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>StructureDefinition.snapshot.modifierExtension</t>
   </si>
   <si>
@@ -1261,6 +1306,22 @@
   </si>
   <si>
     <t>StructureDefinition.differential.extension</t>
+  </si>
+  <si>
+    <t>StructureDefinition.differential.extension:differential</t>
+  </si>
+  <si>
+    <t>differential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.differential|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.differential from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `StructureDefinition.differential` has is mapped to FHIR R4 element `StructureDefinition.differential`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureDefinition.differential.modifierExtension</t>
@@ -1573,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1582,7 +1643,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.48046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.87109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5736,7 +5797,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5758,14 +5819,12 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5802,16 +5861,14 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>287</v>
@@ -5829,7 +5886,7 @@
         <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>81</v>
@@ -5846,14 +5903,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5866,26 +5925,24 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5933,7 +5990,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5942,13 +5999,13 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -5965,44 +6022,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6050,22 +6109,22 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6082,10 +6141,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6093,7 +6152,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6108,16 +6167,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6167,16 +6226,16 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6199,10 +6258,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6225,15 +6284,17 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6282,7 +6343,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6352,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6406,7 +6467,7 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6440,7 +6501,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6452,10 +6513,10 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>329</v>
@@ -6488,13 +6549,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6515,7 +6576,7 @@
         <v>328</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -6544,10 +6605,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6570,17 +6631,15 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6605,13 +6664,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6629,7 +6688,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -6661,10 +6720,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6672,10 +6731,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6687,15 +6746,17 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6744,16 +6805,16 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -6776,10 +6837,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6790,7 +6851,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6799,16 +6860,16 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6859,22 +6920,22 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -6891,21 +6952,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -6917,17 +6978,15 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -6976,19 +7035,19 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>86</v>
@@ -7008,14 +7067,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7028,26 +7087,22 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7083,19 +7138,17 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7110,7 +7163,7 @@
         <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>81</v>
@@ -7127,21 +7180,23 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7150,18 +7205,20 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7186,13 +7243,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7210,19 +7267,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7242,42 +7299,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7325,22 +7386,22 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7357,10 +7418,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7368,10 +7429,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7383,17 +7444,15 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N50" t="s" s="2">
         <v>355</v>
       </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7418,13 +7477,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7442,16 +7501,16 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7474,10 +7533,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7500,17 +7559,15 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N51" t="s" s="2">
         <v>360</v>
       </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7535,13 +7592,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7559,7 +7616,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -7568,7 +7625,7 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7591,10 +7648,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7605,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7617,16 +7674,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7676,16 +7733,16 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7708,10 +7765,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7719,7 +7776,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -7734,16 +7791,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7769,13 +7826,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -7793,16 +7850,16 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -7825,10 +7882,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7848,18 +7905,20 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -7908,7 +7967,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7917,10 +7976,10 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -7940,10 +7999,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7963,18 +8022,20 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -7999,13 +8060,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8023,7 +8084,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8035,10 +8096,10 @@
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -8055,21 +8116,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8081,17 +8142,15 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8140,22 +8199,22 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>81</v>
@@ -8172,46 +8231,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8259,22 +8314,22 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
@@ -8291,10 +8346,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8302,7 +8357,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8317,13 +8372,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8362,31 +8417,29 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
@@ -8398,7 +8451,7 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8406,12 +8459,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8432,15 +8487,17 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8489,19 +8546,19 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>379</v>
+        <v>146</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>394</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
@@ -8521,42 +8578,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -8604,22 +8665,22 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>81</v>
@@ -8636,18 +8697,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -8662,17 +8723,15 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8721,22 +8780,22 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>81</v>
@@ -8745,7 +8804,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -8753,46 +8812,42 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -8840,22 +8895,22 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>139</v>
+        <v>408</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>81</v>
@@ -8872,10 +8927,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8883,10 +8938,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -8898,13 +8953,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8955,33 +9010,499 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>398</v>
+        <v>285</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC64" s="2"/>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AO63" t="s" s="2">
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/StructureDefinition-profile-StructureDefinition.xlsx
+++ b/StructureDefinition-profile-StructureDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.917957-06:00</t>
+    <t>2026-02-20T11:59:20.9508287-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/StructureDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/StructureDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,13 +450,33 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>StructureDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for StructureDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `StructureDefinition.copyrightLabel` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+  </si>
+  <si>
     <t>StructureDefinition.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -466,30 +486,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `StructureDefinition.versionAlgorithm[x]` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>StructureDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `StructureDefinition.copyrightLabel` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `StructureDefinition.versionAlgorithm[x]` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
   </si>
   <si>
     <t>StructureDefinition.modifierExtension</t>
@@ -924,7 +922,7 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.fhirVersion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.fhirVersion}
 </t>
   </si>
   <si>
@@ -935,6 +933,10 @@
   </si>
   <si>
     <t>Element `StructureDefinition.fhirVersion` has is mapped to FHIR R4 element `StructureDefinition.fhirVersion`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>StructureDefinition.fhirVersion.value</t>
@@ -981,7 +983,7 @@
     <t>mapping</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.mapping|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.mapping}
 </t>
   </si>
   <si>
@@ -1106,7 +1108,7 @@
     <t>context</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.context|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.context}
 </t>
   </si>
   <si>
@@ -1252,7 +1254,7 @@
     <t>snapshot</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.snapshot|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.snapshot}
 </t>
   </si>
   <si>
@@ -1314,7 +1316,7 @@
     <t>differential</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.differential|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.differential}
 </t>
   </si>
   <si>
@@ -1653,7 +1655,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.4921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2836,7 +2838,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -2859,13 +2861,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
@@ -2887,16 +2889,16 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2955,7 +2957,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -2978,14 +2980,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3007,16 +3009,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3065,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3097,14 +3099,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3126,16 +3128,16 @@
         <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
@@ -3184,7 +3186,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>88</v>
@@ -3202,10 +3204,10 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3216,10 +3218,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3242,19 +3244,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3303,7 +3305,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3321,24 +3323,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3361,16 +3363,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3420,7 +3422,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3438,10 +3440,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>4</v>
@@ -3452,10 +3454,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3478,19 +3480,19 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3539,7 +3541,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3548,7 +3550,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3571,10 +3573,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3597,16 +3599,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3656,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3674,7 +3676,7 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
@@ -3688,10 +3690,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3717,13 +3719,13 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3749,14 +3751,14 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3773,7 +3775,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3791,13 +3793,13 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3805,10 +3807,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3831,19 +3833,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3892,7 +3894,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3910,13 +3912,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3924,14 +3926,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3950,16 +3952,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4009,7 +4011,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4027,10 +4029,10 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4041,10 +4043,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4067,19 +4069,19 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4128,7 +4130,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4146,13 +4148,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4160,10 +4162,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4186,16 +4188,16 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4245,7 +4247,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4263,7 +4265,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4277,10 +4279,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4303,16 +4305,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4362,7 +4364,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4380,7 +4382,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4394,10 +4396,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4420,19 +4422,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4481,7 +4483,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4499,7 +4501,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4513,10 +4515,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4539,16 +4541,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4574,14 +4576,14 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4616,7 +4618,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4630,10 +4632,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4656,16 +4658,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4715,7 +4717,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4733,28 +4735,28 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4773,17 +4775,17 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4832,7 +4834,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4850,7 +4852,7 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -4859,15 +4861,15 @@
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4890,17 +4892,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4925,14 +4927,14 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4973,7 +4975,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4981,10 +4983,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5010,13 +5012,13 @@
         <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5042,14 +5044,14 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5066,7 +5068,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5098,10 +5100,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5124,13 +5126,13 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5181,7 +5183,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5213,10 +5215,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5294,7 +5296,7 @@
         <v>137</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5326,13 +5328,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
@@ -5354,16 +5356,16 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5413,7 +5415,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5422,7 +5424,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>139</v>
@@ -5471,7 +5473,7 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>295</v>
@@ -5701,7 +5703,7 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>303</v>
@@ -5758,7 +5760,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5871,7 +5873,7 @@
         <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5990,7 +5992,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5999,7 +6001,7 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>139</v>
@@ -6057,10 +6059,10 @@
         <v>314</v>
       </c>
       <c r="N38" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6401,7 +6403,7 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>326</v>
@@ -6516,7 +6518,7 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>329</v>
@@ -6664,7 +6666,7 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>334</v>
@@ -6746,7 +6748,7 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>337</v>
@@ -6978,7 +6980,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>303</v>
@@ -7035,7 +7037,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7148,7 +7150,7 @@
         <v>137</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7267,7 +7269,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7276,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>139</v>
@@ -7334,10 +7336,10 @@
         <v>314</v>
       </c>
       <c r="N49" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7477,7 +7479,7 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>356</v>
@@ -7559,7 +7561,7 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>359</v>
@@ -7674,7 +7676,7 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>362</v>
@@ -7826,7 +7828,7 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y53" t="s" s="2">
         <v>370</v>
@@ -8060,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>383</v>
@@ -8257,7 +8259,7 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>303</v>
@@ -8314,7 +8316,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8429,7 @@
         <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8548,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8555,7 +8557,7 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>139</v>
@@ -8613,10 +8615,10 @@
         <v>314</v>
       </c>
       <c r="N60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -8953,7 +8955,7 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>303</v>
@@ -9010,7 +9012,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9123,7 +9125,7 @@
         <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9242,7 +9244,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9251,7 +9253,7 @@
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>139</v>
@@ -9309,10 +9311,10 @@
         <v>314</v>
       </c>
       <c r="N66" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-profile-StructureDefinition.xlsx
+++ b/StructureDefinition-profile-StructureDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9508287-06:00</t>
+    <t>2026-02-21T13:36:54.3555429-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/StructureDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/StructureDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -426,21 +426,21 @@
     <t>StructureDefinition.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -450,51 +450,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>StructureDefinition.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureDefinition.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `StructureDefinition.copyrightLabel` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
-  </si>
-  <si>
-    <t>StructureDefinition.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `StructureDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `StructureDefinition.versionAlgorithm[x]` has a context of StructureDefinition based on following the parent source element upwards and mapping to `StructureDefinition`.</t>
-  </si>
-  <si>
     <t>StructureDefinition.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -502,9 +458,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -913,6 +866,19 @@
     <t>StructureDefinition.fhirVersion.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -922,7 +888,7 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.fhirVersion}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.fhirVersion|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -932,7 +898,7 @@
     <t>The version of the FHIR specification on which this StructureDefinition is based - this is the formal version of the specification, without the revision number, e.g. [publication].[major].[minor], which is 4.6.0. for this version.</t>
   </si>
   <si>
-    <t>Element `StructureDefinition.fhirVersion` has is mapped to FHIR R4 element `StructureDefinition.fhirVersion`, but has no comparisons.</t>
+    <t>Element `StructureDefinition.fhirVersion` is mapped to FHIR R4 element `StructureDefinition.fhirVersion` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -977,20 +943,7 @@
     <t>StructureDefinition.mapping.extension</t>
   </si>
   <si>
-    <t>StructureDefinition.mapping.extension:mapping</t>
-  </si>
-  <si>
-    <t>mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.mapping}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.mapping from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `StructureDefinition.mapping` has is mapped to FHIR R4 element `StructureDefinition.mapping`, but has no comparisons.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>StructureDefinition.mapping.modifierExtension</t>
@@ -1102,25 +1055,6 @@
     <t>StructureDefinition.context.extension</t>
   </si>
   <si>
-    <t>StructureDefinition.context.extension:context</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.context}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.context from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Identifies the types of resource or data type elements to which the extension can be applied. For more guidance on using the 'context' element, see the [defining extensions page](https://hl7.org/fhir/defining.html#context).</t>
-  </si>
-  <si>
-    <t>Element `StructureDefinition.context` has is mapped to FHIR R4 element `StructureDefinition.context`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>StructureDefinition.context.modifierExtension</t>
   </si>
   <si>
@@ -1248,22 +1182,6 @@
     <t>StructureDefinition.snapshot.extension</t>
   </si>
   <si>
-    <t>StructureDefinition.snapshot.extension:snapshot</t>
-  </si>
-  <si>
-    <t>snapshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.snapshot}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.snapshot from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `StructureDefinition.snapshot` has is mapped to FHIR R4 element `StructureDefinition.snapshot`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>StructureDefinition.snapshot.modifierExtension</t>
   </si>
   <si>
@@ -1308,22 +1226,6 @@
   </si>
   <si>
     <t>StructureDefinition.differential.extension</t>
-  </si>
-  <si>
-    <t>StructureDefinition.differential.extension:differential</t>
-  </si>
-  <si>
-    <t>differential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-StructureDefinition.differential}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for StructureDefinition.differential from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `StructureDefinition.differential` has is mapped to FHIR R4 element `StructureDefinition.differential`, but has no comparisons.</t>
   </si>
   <si>
     <t>StructureDefinition.differential.modifierExtension</t>
@@ -1636,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1645,9 +1547,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.48046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.87109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1655,7 +1557,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.4921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.8828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2636,7 +2538,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2655,15 +2557,17 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -2700,14 +2604,16 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2725,7 +2631,7 @@
         <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>81</v>
@@ -2745,43 +2651,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -2829,7 +2735,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2844,7 +2750,7 @@
         <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>81</v>
@@ -2861,20 +2767,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -2886,21 +2790,23 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
       </c>
@@ -2948,28 +2854,28 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>81</v>
@@ -2980,14 +2886,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3000,25 +2906,25 @@
         <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3067,7 +2973,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3079,38 +2985,38 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3125,20 +3031,18 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3186,10 +3090,10 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>88</v>
@@ -3204,13 +3108,13 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3218,10 +3122,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3229,10 +3133,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
@@ -3244,19 +3148,19 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3305,16 +3209,16 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
@@ -3323,24 +3227,24 @@
         <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3363,16 +3267,16 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3422,7 +3326,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3440,13 +3344,13 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3454,10 +3358,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3474,26 +3378,24 @@
         <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3517,13 +3419,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3541,7 +3443,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
@@ -3550,7 +3452,7 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>100</v>
@@ -3559,13 +3461,13 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3573,10 +3475,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3599,18 +3501,20 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3658,7 +3562,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3676,13 +3580,13 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3690,18 +3594,18 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3710,22 +3614,22 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3751,13 +3655,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -3775,10 +3679,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3793,13 +3697,13 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3807,10 +3711,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3833,7 +3737,7 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>206</v>
@@ -3842,10 +3746,10 @@
         <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3894,7 +3798,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3912,13 +3816,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3926,21 +3830,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -3952,16 +3856,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4011,13 +3915,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4029,10 +3933,10 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4066,23 +3970,21 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O21" t="s" s="2">
         <v>223</v>
       </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4151,10 +4053,10 @@
         <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4162,10 +4064,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4188,18 +4090,20 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4247,7 +4151,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4265,7 +4169,7 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
@@ -4279,10 +4183,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4293,7 +4197,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4302,19 +4206,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4340,13 +4244,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4364,13 +4268,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4382,7 +4286,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4396,10 +4300,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4410,7 +4314,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4419,23 +4323,21 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O24" t="s" s="2">
         <v>244</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4483,13 +4385,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -4504,32 +4406,32 @@
         <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4538,21 +4440,21 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4576,13 +4478,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4600,13 +4502,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4618,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -4627,15 +4529,15 @@
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4646,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4655,21 +4557,21 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4693,13 +4595,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -4717,13 +4619,13 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
@@ -4735,16 +4637,16 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO26" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -4756,7 +4658,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4772,21 +4674,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4810,13 +4712,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4852,7 +4754,7 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -4861,7 +4763,7 @@
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -4880,7 +4782,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4889,21 +4791,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -4927,13 +4827,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4951,19 +4851,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>81</v>
@@ -4975,7 +4875,7 @@
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4983,10 +4883,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4997,7 +4897,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5006,20 +4906,18 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5044,43 +4942,41 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5100,12 +4996,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5126,15 +5024,17 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5183,19 +5083,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5215,10 +5115,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5229,7 +5129,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5241,13 +5141,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5286,14 +5186,16 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>286</v>
@@ -5302,13 +5204,13 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
@@ -5331,11 +5233,9 @@
         <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5344,7 +5244,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5356,17 +5256,15 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5415,7 +5313,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5424,10 +5322,10 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
@@ -5447,10 +5345,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5473,13 +5371,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5530,7 +5428,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5443,7 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
@@ -5562,14 +5460,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5588,15 +5486,17 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5645,7 +5545,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5657,10 +5557,10 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>81</v>
@@ -5677,42 +5577,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5760,22 +5664,22 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>81</v>
@@ -5792,10 +5696,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5803,10 +5707,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -5818,15 +5722,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5863,29 +5769,31 @@
         <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5908,11 +5816,9 @@
         <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5921,7 +5827,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5933,16 +5839,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5992,19 +5898,19 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -6031,39 +5937,35 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6111,22 +6013,22 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
@@ -6143,10 +6045,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6154,7 +6056,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6169,17 +6071,15 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6228,10 +6128,10 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
@@ -6260,10 +6160,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6271,7 +6171,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6283,20 +6183,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6321,13 +6219,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6345,16 +6243,16 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6377,10 +6275,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6388,7 +6286,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -6400,18 +6298,20 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6460,16 +6360,16 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>100</v>
@@ -6492,10 +6392,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6506,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6515,16 +6415,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6575,16 +6475,16 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>100</v>
@@ -6607,10 +6507,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6618,7 +6518,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6630,16 +6530,16 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6666,13 +6566,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6690,10 +6590,10 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>88</v>
@@ -6702,10 +6602,10 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -6722,21 +6622,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6745,19 +6645,19 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6807,22 +6707,22 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -6839,14 +6739,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6859,22 +6759,26 @@
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6922,7 +6826,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6931,13 +6835,13 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>81</v>
@@ -6954,10 +6858,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6965,7 +6869,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -6977,16 +6881,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7013,13 +6917,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7037,10 +6941,10 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>88</v>
@@ -7049,10 +6953,10 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>81</v>
@@ -7069,10 +6973,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7080,10 +6984,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7092,16 +6996,16 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
+        <v>340</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7140,29 +7044,31 @@
         <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
@@ -7182,14 +7088,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7207,19 +7111,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7269,7 +7173,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7278,10 +7182,10 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7301,46 +7205,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7364,13 +7266,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7388,22 +7290,22 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7431,7 +7333,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7446,15 +7348,17 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7479,13 +7383,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -7506,13 +7410,13 @@
         <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7535,10 +7439,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7546,7 +7450,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
@@ -7561,15 +7465,17 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7594,13 +7500,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7618,10 +7524,10 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>88</v>
@@ -7650,10 +7556,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7664,7 +7570,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -7673,20 +7579,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7735,19 +7639,19 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -7767,10 +7671,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7778,7 +7682,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -7790,20 +7694,18 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -7828,13 +7730,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -7852,22 +7754,22 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>81</v>
@@ -7884,21 +7786,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -7907,19 +7809,19 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7969,22 +7871,22 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>81</v>
@@ -8001,44 +7903,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8062,13 +7966,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8086,22 +7990,22 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>81</v>
@@ -8118,10 +8022,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8129,10 +8033,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8144,13 +8048,13 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8201,19 +8105,19 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
@@ -8225,7 +8129,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8233,10 +8137,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8259,13 +8163,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8316,7 +8220,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8325,13 +8229,13 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>81</v>
@@ -8348,10 +8252,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8362,7 +8266,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8374,13 +8278,13 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8419,32 +8323,34 @@
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
@@ -8461,23 +8367,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -8489,16 +8393,16 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>387</v>
+        <v>296</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>396</v>
+        <v>137</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8548,7 +8452,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8557,13 +8461,13 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>81</v>
@@ -8580,14 +8484,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8606,19 +8510,19 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -8667,7 +8571,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8699,10 +8603,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8725,13 +8629,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8782,7 +8686,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>88</v>
@@ -8791,10 +8695,10 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -8806,705 +8710,9 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AO67" t="s" s="2">
         <v>81</v>
       </c>
     </row>
